--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="Population &amp; General Data" sheetId="2" r:id="rId1"/>
@@ -13646,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14022,9 +14022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP295" sqref="AP295"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN290" sqref="AN290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
